--- a/Shading Nets/my_graphs/Value Added Change by Activities.xlsx
+++ b/Shading Nets/my_graphs/Value Added Change by Activities.xlsx
@@ -468,25 +468,25 @@
         <v>9</v>
       </c>
       <c r="B2">
-        <v>-0.006828765076534182</v>
+        <v>-1.270855773327639E-05</v>
       </c>
       <c r="C2">
-        <v>-0.08750407913612435</v>
+        <v>-0.0001628479658393189</v>
       </c>
       <c r="D2">
-        <v>-0.07706517540646018</v>
+        <v>-0.0001434208170394413</v>
       </c>
       <c r="E2">
-        <v>-1.554209037218243</v>
+        <v>-0.002892434014938772</v>
       </c>
       <c r="F2">
-        <v>-0.01155602958169766</v>
+        <v>-2.150615910068154E-05</v>
       </c>
       <c r="G2">
-        <v>-0.2638814932579407</v>
+        <v>-0.0004910921270493418</v>
       </c>
       <c r="H2">
-        <v>-0.003679937690321822</v>
+        <v>-6.848480552434921E-06</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -500,22 +500,22 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>-0.9301206887887474</v>
+        <v>-0.001730985149833941</v>
       </c>
       <c r="C3">
-        <v>-17.84881569548088</v>
+        <v>-0.03321723222052242</v>
       </c>
       <c r="D3">
-        <v>-10.71237695484251</v>
+        <v>-0.019936085340305</v>
       </c>
       <c r="E3">
-        <v>-191.7715521621139</v>
+        <v>-0.3568931569461711</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>-32.55794569305363</v>
+        <v>-0.06059140623983694</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -532,28 +532,28 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>-0.01853308095087414</v>
+        <v>-3.449067253313842E-05</v>
       </c>
       <c r="C4">
-        <v>-0.3871408233608236</v>
+        <v>-0.0007204817957244813</v>
       </c>
       <c r="D4">
-        <v>-0.2356529178723576</v>
+        <v>-0.0004385578140500002</v>
       </c>
       <c r="E4">
-        <v>-5.470821251685265</v>
+        <v>-0.01018137799110264</v>
       </c>
       <c r="F4">
-        <v>-0.0001369449601043016</v>
+        <v>-2.548549673520029E-07</v>
       </c>
       <c r="G4">
-        <v>-0.8598858575278427</v>
+        <v>-0.001600275820237584</v>
       </c>
       <c r="H4">
-        <v>-0.006490655126981437</v>
+        <v>-1.20793265523389E-05</v>
       </c>
       <c r="I4">
-        <v>-0.7663148922874825</v>
+        <v>-0.001426137176167686</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -567,25 +567,25 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>-0.05207302119512747</v>
+        <v>-9.690960268926574E-05</v>
       </c>
       <c r="D5">
-        <v>-0.06981171206359704</v>
+        <v>-0.0001299218889982967</v>
       </c>
       <c r="E5">
-        <v>-1.101525636107453</v>
+        <v>-0.002049975385943981</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>-0.1632454678422164</v>
+        <v>-0.0003038051771682149</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>-0.1164567672038856</v>
+        <v>-0.0002167298685549213</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -596,13 +596,13 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>-0.02070988124523865</v>
+        <v>-3.8541767935385E-05</v>
       </c>
       <c r="C6">
-        <v>-0.2007343088916969</v>
+        <v>-0.0003735731224878691</v>
       </c>
       <c r="D6">
-        <v>-0.1709947379713412</v>
+        <v>-0.0003182268119417131</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -614,10 +614,10 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>-0.6331388815015089</v>
+        <v>-0.001178292237455025</v>
       </c>
       <c r="I6">
-        <v>-0.04734925354750885</v>
+        <v>-8.811851330392528E-05</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -628,13 +628,13 @@
         <v>14</v>
       </c>
       <c r="B7">
-        <v>-8.650780329233498E-05</v>
+        <v>-1.609938564683944E-07</v>
       </c>
       <c r="C7">
-        <v>-6.311740246900399E-05</v>
+        <v>-1.174635571032923E-07</v>
       </c>
       <c r="D7">
-        <v>-0.0003186624691693396</v>
+        <v>-5.930413209398466E-07</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -646,10 +646,10 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>-0.05887434425676474</v>
+        <v>-0.00010956708501908</v>
       </c>
       <c r="I7">
-        <v>-0.006214397807070782</v>
+        <v>-1.156519829237368E-05</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -660,13 +660,13 @@
         <v>15</v>
       </c>
       <c r="B8">
-        <v>-0.03825375929909569</v>
+        <v>-7.119150245671335E-05</v>
       </c>
       <c r="C8">
-        <v>-0.02783568362656297</v>
+        <v>-5.180312109587248E-05</v>
       </c>
       <c r="D8">
-        <v>-0.1402709719495761</v>
+        <v>-0.0002610488854770665</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -678,10 +678,10 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>-0.3741405022847175</v>
+        <v>-0.0006962877614569152</v>
       </c>
       <c r="I8">
-        <v>-0.03515196067769466</v>
+        <v>-6.54189532269811E-05</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -692,13 +692,13 @@
         <v>16</v>
       </c>
       <c r="B9">
-        <v>-0.0358413829582247</v>
+        <v>-6.670199084624073E-05</v>
       </c>
       <c r="C9">
-        <v>-0.0261480103711591</v>
+        <v>-4.866230609934519E-05</v>
       </c>
       <c r="D9">
-        <v>-0.1319681982112684</v>
+        <v>-0.000245597151263155</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>-0.8242207308248908</v>
+        <v>-0.001533901850962138</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -724,13 +724,13 @@
         <v>17</v>
       </c>
       <c r="B10">
-        <v>-0.02179985076418234</v>
+        <v>-4.0570235796622E-05</v>
       </c>
       <c r="C10">
-        <v>-0.01262936497369083</v>
+        <v>-2.350366139580728E-05</v>
       </c>
       <c r="D10">
-        <v>-0.002599872888367827</v>
+        <v>-4.838448603550205E-06</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -742,10 +742,10 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>-0.09490697404544335</v>
+        <v>-0.0001766249843058176</v>
       </c>
       <c r="I10">
-        <v>-0.007669844660085801</v>
+        <v>-1.427383176633157E-05</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -756,13 +756,13 @@
         <v>18</v>
       </c>
       <c r="B11">
-        <v>-0.762157863471657</v>
+        <v>-0.001418400905095041</v>
       </c>
       <c r="C11">
-        <v>-2.194916358101182</v>
+        <v>-0.004084811429493129</v>
       </c>
       <c r="D11">
-        <v>-2.780704367847648</v>
+        <v>-0.005174982186872512</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -774,10 +774,10 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>-11.37212710315362</v>
+        <v>-0.02116390224546194</v>
       </c>
       <c r="I11">
-        <v>-0.5808851586189121</v>
+        <v>-0.001081046386389062</v>
       </c>
       <c r="J11">
         <v>0</v>
